--- a/data/DataRequiredForMirror.xlsx
+++ b/data/DataRequiredForMirror.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XF\Desktop\Mirror-main\Mirror-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XF\Desktop\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE83EB10-4EA3-4CD7-B76C-6DCAB94163E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2524C939-CDE0-4645-8658-5F1C3807FB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="2" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb" sheetId="9" r:id="rId1"/>
@@ -494,7 +494,9 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -558,560 +560,50 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0.36352546171342942</v>
-      </c>
-      <c r="C2">
-        <v>0.48726061173716934</v>
-      </c>
-      <c r="D2">
-        <v>0.53405661166678897</v>
-      </c>
-      <c r="E2">
-        <v>0.43831439183549703</v>
-      </c>
-      <c r="F2">
-        <v>0.43255046525265539</v>
-      </c>
-      <c r="G2">
-        <v>0.51246919539881164</v>
-      </c>
-      <c r="H2">
-        <v>0.41152405127973102</v>
-      </c>
-      <c r="I2">
-        <v>0.39910362063953625</v>
-      </c>
-      <c r="J2">
-        <v>0.41234655797903608</v>
-      </c>
-      <c r="K2">
-        <v>0.45499631814897001</v>
-      </c>
-      <c r="L2">
-        <v>0.44336735511033548</v>
-      </c>
-      <c r="M2">
-        <v>0.50945785794991771</v>
-      </c>
-      <c r="N2">
-        <v>0.57571863651478461</v>
-      </c>
-      <c r="O2">
-        <v>0.5231913182590906</v>
-      </c>
-      <c r="P2">
-        <v>0.50789451296391064</v>
-      </c>
-      <c r="Q2">
-        <v>0.58079721304066301</v>
-      </c>
-      <c r="R2">
-        <v>0.53954981075675645</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0.49793220396535504</v>
-      </c>
-      <c r="C3">
-        <v>0.55095755305132277</v>
-      </c>
-      <c r="D3">
-        <v>0.15342389303797066</v>
-      </c>
-      <c r="E3">
-        <v>0.27008091502321635</v>
-      </c>
-      <c r="F3">
-        <v>0.23582265557290033</v>
-      </c>
-      <c r="G3">
-        <v>0.49688270115029703</v>
-      </c>
-      <c r="H3">
-        <v>0.88821079540526204</v>
-      </c>
-      <c r="I3">
-        <v>0.92178847248111384</v>
-      </c>
-      <c r="J3">
-        <v>0.65529903314583826</v>
-      </c>
-      <c r="K3">
-        <v>0.83996757253729903</v>
-      </c>
-      <c r="L3">
-        <v>0.60141194550009702</v>
-      </c>
-      <c r="M3">
-        <v>0.57025837334224572</v>
-      </c>
-      <c r="N3">
-        <v>0.40950699538476965</v>
-      </c>
-      <c r="O3">
-        <v>0.42061433365157452</v>
-      </c>
-      <c r="P3">
-        <v>0.36435791362007974</v>
-      </c>
-      <c r="Q3">
-        <v>0.44613519130622475</v>
-      </c>
-      <c r="R3">
-        <v>0.53454350559767339</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0.41522036257955464</v>
-      </c>
-      <c r="C4">
-        <v>0.54388011512752787</v>
-      </c>
-      <c r="D4">
-        <v>0.59415651460818142</v>
-      </c>
-      <c r="E4">
-        <v>0.4102754790334503</v>
-      </c>
-      <c r="F4">
-        <v>0.68548622055519748</v>
-      </c>
-      <c r="G4">
-        <v>0.44232997128049606</v>
-      </c>
-      <c r="H4">
-        <v>0.32124247095292591</v>
-      </c>
-      <c r="I4">
-        <v>0.39390277634260512</v>
-      </c>
-      <c r="J4">
-        <v>0.46951184625357778</v>
-      </c>
-      <c r="K4">
-        <v>0.46584057883596519</v>
-      </c>
-      <c r="L4">
-        <v>0.27873757345433392</v>
-      </c>
-      <c r="M4">
-        <v>0.2662557963806057</v>
-      </c>
-      <c r="N4">
-        <v>0.45259890234440314</v>
-      </c>
-      <c r="O4">
-        <v>0.46075315371538517</v>
-      </c>
-      <c r="P4">
-        <v>0.38588840352165443</v>
-      </c>
-      <c r="Q4">
-        <v>0.43865396787653371</v>
-      </c>
-      <c r="R4">
-        <v>0.41939848693876219</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>0.45657628327245481</v>
-      </c>
-      <c r="C5">
-        <v>0.52972523927993831</v>
-      </c>
-      <c r="D5">
-        <v>0.25359039794029126</v>
-      </c>
-      <c r="E5">
-        <v>0.35419765342935672</v>
-      </c>
-      <c r="F5">
-        <v>0.6995382069608943</v>
-      </c>
-      <c r="G5">
-        <v>0.39557048853495236</v>
-      </c>
-      <c r="H5">
-        <v>0.40069026164051441</v>
-      </c>
-      <c r="I5">
-        <v>0.36009728841255284</v>
-      </c>
-      <c r="J5">
-        <v>0.34803560867017669</v>
-      </c>
-      <c r="K5">
-        <v>0.35739797196601336</v>
-      </c>
-      <c r="L5">
-        <v>0.28532276472057394</v>
-      </c>
-      <c r="M5">
-        <v>0.32030069895156388</v>
-      </c>
-      <c r="N5">
-        <v>0.41566298209328872</v>
-      </c>
-      <c r="O5">
-        <v>0.4652130226113641</v>
-      </c>
-      <c r="P5">
-        <v>0.48636402306233606</v>
-      </c>
-      <c r="Q5">
-        <v>0.34139806329055056</v>
-      </c>
-      <c r="R5">
-        <v>0.37934804566609748</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>0.52894914448503016</v>
-      </c>
-      <c r="C6">
-        <v>0.59342218059409169</v>
-      </c>
-      <c r="D6">
-        <v>0.41385680578400424</v>
-      </c>
-      <c r="E6">
-        <v>0.52243113024163745</v>
-      </c>
-      <c r="F6">
-        <v>0.5028103972811393</v>
-      </c>
-      <c r="G6">
-        <v>0.37219074716218048</v>
-      </c>
-      <c r="H6">
-        <v>0.3898564720012978</v>
-      </c>
-      <c r="I6">
-        <v>0.35749686626408728</v>
-      </c>
-      <c r="J6">
-        <v>0.33612617361298058</v>
-      </c>
-      <c r="K6">
-        <v>0.34113158093552054</v>
-      </c>
-      <c r="L6">
-        <v>0.32483391231801428</v>
-      </c>
-      <c r="M6">
-        <v>0.38785682716526171</v>
-      </c>
-      <c r="N6">
-        <v>0.50184679601255577</v>
-      </c>
-      <c r="O6">
-        <v>0.44291367813146931</v>
-      </c>
-      <c r="P6">
-        <v>0.39306523348884592</v>
-      </c>
-      <c r="Q6">
-        <v>0.34139806329055056</v>
-      </c>
-      <c r="R6">
-        <v>0.42941109725692839</v>
-      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>0.53928812465825526</v>
-      </c>
-      <c r="C7">
-        <v>0.66419655983203985</v>
-      </c>
-      <c r="D7">
-        <v>0.71435632049096609</v>
-      </c>
-      <c r="E7">
-        <v>0.71870351985596492</v>
-      </c>
-      <c r="F7">
-        <v>0.61522628852671357</v>
-      </c>
-      <c r="G7">
-        <v>0.7462666091265302</v>
-      </c>
-      <c r="H7">
-        <v>0.54152952695033041</v>
-      </c>
-      <c r="I7">
-        <v>0.61493865896217781</v>
-      </c>
-      <c r="J7">
-        <v>0.43854731510486772</v>
-      </c>
-      <c r="K7">
-        <v>0.22184471337857359</v>
-      </c>
-      <c r="L7">
-        <v>0.58165637170137674</v>
-      </c>
-      <c r="M7">
-        <v>0.39461243998663148</v>
-      </c>
-      <c r="N7">
-        <v>0.41566298209328872</v>
-      </c>
-      <c r="O7">
-        <v>0.21546036443654248</v>
-      </c>
-      <c r="P7">
-        <v>0.41459572339042061</v>
-      </c>
-      <c r="Q7">
-        <v>0.36384173357962357</v>
-      </c>
-      <c r="R7">
-        <v>0.25919672184810322</v>
-      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>0.97352529193370707</v>
-      </c>
-      <c r="C8">
-        <v>1.3072270842916178E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.53405661166678897</v>
-      </c>
-      <c r="E8">
-        <v>0.7747813454600585</v>
-      </c>
-      <c r="F8">
-        <v>0.71359019336659113</v>
-      </c>
-      <c r="G8">
-        <v>0.83978557461761771</v>
-      </c>
-      <c r="H8">
-        <v>0.70764763475165182</v>
-      </c>
-      <c r="I8">
-        <v>0.64874414689223003</v>
-      </c>
-      <c r="J8">
-        <v>0.92921603946135045</v>
-      </c>
-      <c r="K8">
-        <v>0.53632827330143384</v>
-      </c>
-      <c r="L8">
-        <v>0.4894636939740159</v>
-      </c>
-      <c r="M8">
-        <v>0.52972469641402697</v>
-      </c>
-      <c r="N8">
-        <v>0.181735487169564</v>
-      </c>
-      <c r="O8">
-        <v>0.41169459585961665</v>
-      </c>
-      <c r="P8">
-        <v>0.54377866279986842</v>
-      </c>
-      <c r="Q8">
-        <v>0.85012125650953951</v>
-      </c>
-      <c r="R8">
-        <v>0.90501008736982214</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>0.36352546171342942</v>
-      </c>
-      <c r="C9">
-        <v>0.49433804966096412</v>
-      </c>
-      <c r="D9">
-        <v>0.5140233106863249</v>
-      </c>
-      <c r="E9">
-        <v>0.32615874062730987</v>
-      </c>
-      <c r="F9">
-        <v>0.24987464197859716</v>
-      </c>
-      <c r="G9">
-        <v>0.39557048853495236</v>
-      </c>
-      <c r="H9">
-        <v>0.3826339455751534</v>
-      </c>
-      <c r="I9">
-        <v>0.41210573138186407</v>
-      </c>
-      <c r="J9">
-        <v>0.42901976705911077</v>
-      </c>
-      <c r="K9">
-        <v>0.57970531604941455</v>
-      </c>
-      <c r="L9">
-        <v>0.68043424069497771</v>
-      </c>
-      <c r="M9">
-        <v>0.81346043491155773</v>
-      </c>
-      <c r="N9">
-        <v>0.69268238397664694</v>
-      </c>
-      <c r="O9">
-        <v>0.80862292760174381</v>
-      </c>
-      <c r="P9">
-        <v>0.94568114096259492</v>
-      </c>
-      <c r="Q9">
-        <v>0.76034657535324723</v>
-      </c>
-      <c r="R9">
-        <v>0.66971374489291691</v>
-      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>0.37386444188665446</v>
-      </c>
-      <c r="C10">
-        <v>0.52264780135614342</v>
-      </c>
-      <c r="D10">
-        <v>0.67428971853003783</v>
-      </c>
-      <c r="E10">
-        <v>0.71870351985596492</v>
-      </c>
-      <c r="F10">
-        <v>0.5028103972811393</v>
-      </c>
-      <c r="G10">
-        <v>0.5592286781443554</v>
-      </c>
-      <c r="H10">
-        <v>0.57041963265490803</v>
-      </c>
-      <c r="I10">
-        <v>0.46671459649964081</v>
-      </c>
-      <c r="J10">
-        <v>0.57193298774546497</v>
-      </c>
-      <c r="K10">
-        <v>0.69899218360636151</v>
-      </c>
-      <c r="L10">
-        <v>0.83189363981849929</v>
-      </c>
-      <c r="M10">
-        <v>0.76617114516196927</v>
-      </c>
-      <c r="N10">
-        <v>0.84658205168962364</v>
-      </c>
-      <c r="O10">
-        <v>0.79970318980978594</v>
-      </c>
-      <c r="P10">
-        <v>0.61554696247178387</v>
-      </c>
-      <c r="Q10">
-        <v>0.50598497874375281</v>
-      </c>
-      <c r="R10">
-        <v>0.43942370757509458</v>
-      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0.48759322379212994</v>
-      </c>
-      <c r="C11">
-        <v>0.60049961851788647</v>
-      </c>
-      <c r="D11">
-        <v>0.61418981558864549</v>
-      </c>
-      <c r="E11">
-        <v>0.46635330463754382</v>
-      </c>
-      <c r="F11">
-        <v>0.36229053322417148</v>
-      </c>
-      <c r="G11">
-        <v>0.23970554604980659</v>
-      </c>
-      <c r="H11">
-        <v>0.38624520878822555</v>
-      </c>
-      <c r="I11">
-        <v>0.42510784212419184</v>
-      </c>
-      <c r="J11">
-        <v>0.40996467096759687</v>
-      </c>
-      <c r="K11">
-        <v>0.50379549124044831</v>
-      </c>
-      <c r="L11">
-        <v>0.48287850270777588</v>
-      </c>
-      <c r="M11">
-        <v>0.44190172973621994</v>
-      </c>
-      <c r="N11">
-        <v>0.5080027827210748</v>
-      </c>
-      <c r="O11">
-        <v>0.45183341592342724</v>
-      </c>
-      <c r="P11">
-        <v>0.34282742371850516</v>
-      </c>
-      <c r="Q11">
-        <v>0.37132295700931461</v>
-      </c>
-      <c r="R11">
-        <v>0.42440479209784532</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +620,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1234,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1257,80 +749,50 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>2.0140355191035755</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.5322948769537623</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.0982488029597595</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.6613684087478289</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.4377188212424281</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>3.6912050894939767</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>7.8701742759321771</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2.0702522678667754</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>4.9143551486598351</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.5630892048513934</v>
       </c>
     </row>
   </sheetData>
@@ -1346,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1378,12 +840,8 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>607499.99</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="8"/>
@@ -1399,12 +857,8 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>1942023.6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="6"/>
       <c r="F3" s="1"/>
@@ -1413,12 +867,8 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>1955580.2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="6"/>
       <c r="F4" s="1"/>
@@ -1427,12 +877,8 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>1762308.48</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
       <c r="F5" s="1"/>
@@ -1441,12 +887,8 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>990799.69</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
@@ -1455,12 +897,8 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>5460000</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
@@ -1469,12 +907,8 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>780000</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -1483,12 +917,8 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <v>782515.84</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -1497,12 +927,8 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>2038400</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -1511,12 +937,8 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>1977300</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2600000</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
